--- a/target/test-classes/TestData/testData.xlsx
+++ b/target/test-classes/TestData/testData.xlsx
@@ -7,25 +7,89 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateAccount" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Emailid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>testjaga277171@gmail.com</t>
-  </si>
-  <si>
     <t>jaga@12345</t>
+  </si>
+  <si>
+    <t>Jaga</t>
+  </si>
+  <si>
+    <t>Waran</t>
+  </si>
+  <si>
+    <t>IT Company</t>
+  </si>
+  <si>
+    <t>Sholinganallur</t>
+  </si>
+  <si>
+    <t>600119</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>9876543212</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TelPhoneNo</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>testjaga23032018@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -58,7 +122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,9 +140,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -388,7 +454,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,22 +464,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/test-classes/TestData/testData.xlsx
+++ b/target/test-classes/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>03/03/2018</t>
   </si>
   <si>
-    <t>testjaga23032018@gmail.com</t>
+    <t>testjaga18042018@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +595,7 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/TestData/testData.xlsx
+++ b/target/test-classes/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Password</t>
   </si>
@@ -86,10 +86,13 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>03/03/2018</t>
-  </si>
-  <si>
-    <t>testjaga18042018@gmail.com</t>
+    <t>jaga@1234</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>testjaga24042018@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,15 +476,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -489,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -588,6 +601,47 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -595,7 +649,10 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/TestData/testData.xlsx
+++ b/target/test-classes/TestData/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
     <sheet name="CreateAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="CAHandlingAlert" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Password</t>
   </si>
@@ -456,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -505,7 +506,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,4 +657,117 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData/testData.xlsx
+++ b/target/test-classes/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Password</t>
   </si>
@@ -87,13 +87,16 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>jaga@1234</t>
-  </si>
-  <si>
     <t>05/04/2018</t>
   </si>
   <si>
     <t>testjaga24042018@gmail.com</t>
+  </si>
+  <si>
+    <t>testjaga952018@gmail.com</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,19 +486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -503,10 +496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -602,47 +595,6 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -650,10 +602,7 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -663,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -732,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
